--- a/classdata.xlsx
+++ b/classdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sysmgr\git\20250417\CopyUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sysmgr\git\20250417\copy-utils-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F57FC6-8A11-4283-A32A-9ACA24AB21C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB3711A-6F6E-415E-BB58-DCDF8B2813D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="2100" windowWidth="27828" windowHeight="19236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19120" yWindow="710" windowWidth="18280" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
   <si>
     <t>className</t>
     <phoneticPr fontId="1"/>
@@ -168,6 +168,34 @@
   <si>
     <t>fieldName</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Dto</t>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Domain1</t>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Domain2</t>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Domain3</t>
   </si>
   <si>
     <t>id</t>
@@ -667,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -1065,23 +1093,132 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="43" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.5">
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="9"/>
     </row>
-    <row r="46" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="9"/>
     </row>
     <row r="49" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -1104,12 +1241,6 @@
     </row>
     <row r="55" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="9"/>
-    </row>
-    <row r="56" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/classdata.xlsx
+++ b/classdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sysmgr\git\20250417\copy-utils-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB3711A-6F6E-415E-BB58-DCDF8B2813D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA5FC7F-39E2-4791-8BA2-EA97561D2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19120" yWindow="710" windowWidth="18280" windowHeight="19240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,12 +245,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -285,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -383,26 +377,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -412,9 +391,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -695,24 +671,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33:E42"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.21875" style="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -729,7 +705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="8"/>
       <c r="C2" s="2" t="s">
@@ -742,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
@@ -755,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="2" t="s">
@@ -768,7 +744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="2" t="s">
@@ -781,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
@@ -794,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
@@ -807,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2" t="s">
@@ -820,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -832,7 +808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
@@ -844,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -856,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -868,7 +844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -880,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>26</v>
@@ -892,7 +868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>26</v>
@@ -904,7 +880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -916,7 +892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -928,7 +904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
@@ -939,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
@@ -950,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
@@ -961,7 +937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
@@ -972,7 +948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
@@ -983,7 +959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
@@ -994,7 +970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1027,7 +1003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1060,7 +1036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1071,7 +1047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1082,7 +1058,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1093,7 +1069,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1115,7 +1091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1126,7 +1102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
@@ -1137,7 +1113,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1159,7 +1135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1170,7 +1146,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C40" s="2" t="s">
         <v>41</v>
       </c>
@@ -1181,7 +1157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1192,7 +1168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1202,45 +1178,6 @@
       <c r="E42" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" s="9"/>
-    </row>
-    <row r="44" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C44" s="9"/>
-    </row>
-    <row r="45" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="9"/>
-    </row>
-    <row r="46" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="9"/>
-    </row>
-    <row r="51" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="9"/>
-    </row>
-    <row r="53" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="9"/>
-    </row>
-    <row r="55" spans="3:3" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/classdata.xlsx
+++ b/classdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sysmgr\git\20250417\copy-utils-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA5FC7F-39E2-4791-8BA2-EA97561D2717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA67835-62CB-4D98-A151-A7CE63083C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>className</t>
     <phoneticPr fontId="1"/>
@@ -211,6 +211,84 @@
   </si>
   <si>
     <t>v3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Dto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample7.model.Sample7Dto</t>
+  </si>
+  <si>
+    <t>java.util.List&lt;org.example.sample3.model.Sample3Dto&gt;</t>
+  </si>
+  <si>
+    <t>sample3dtos</t>
+  </si>
+  <si>
+    <t>org.example.sample7.model.Sample7Domain</t>
+  </si>
+  <si>
+    <t>java.util.List&lt;org.example.sample3.model.Sample3Domain&gt;</t>
+  </si>
+  <si>
+    <t>sample3domains</t>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Domain3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample3.model.Order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample3.model.Sample3Dto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orderValue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>param2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>param3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>domainParam3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample3.model.Sample3Domain</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -218,7 +296,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,8 +324,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +363,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -302,95 +393,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -671,43 +686,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:XFD71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="14.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
@@ -720,7 +735,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -733,7 +748,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="8"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -746,7 +761,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="8"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -759,7 +774,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -772,7 +787,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -785,7 +800,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
-      <c r="B8" s="8"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -798,6 +813,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -810,6 +826,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
@@ -822,6 +839,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
@@ -834,6 +852,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
@@ -846,6 +865,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
@@ -857,326 +877,523 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E21" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="C15" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="C16" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="C17" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C18" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E25" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C19" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E26" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C20" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C21" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E28" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C22" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C23" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C24" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C25" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C26" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C27" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C28" s="2" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C29" s="1" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C30" s="1" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C31" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C32" s="1" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C33" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="1" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="1" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>46</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
